--- a/data/original/metadata.xlsx
+++ b/data/original/metadata.xlsx
@@ -1575,7 +1575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
         <v>114</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1" t="s">
         <v>116</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
         <v>122</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
         <v>123</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
         <v>124</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="1" t="s">
         <v>129</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="1" t="s">
         <v>130</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="1" t="s">
         <v>131</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="1" t="s">
         <v>135</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="1" t="s">
         <v>138</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
       <c r="A68" s="1" t="s">
         <v>152</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
       <c r="A69" s="1" t="s">
         <v>154</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
       <c r="A70" s="1" t="s">
         <v>156</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
       <c r="A71" s="1" t="s">
         <v>158</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
       <c r="A72" s="1" t="s">
         <v>161</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
       <c r="A76" s="1" t="s">
         <v>165</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
       <c r="A77" s="1" t="s">
         <v>166</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
       <c r="A78" s="1" t="s">
         <v>167</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
       <c r="A81" s="1" t="s">
         <v>173</v>
       </c>
